--- a/test/fdi_tail_curves.xlsx
+++ b/test/fdi_tail_curves.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3F417-C8B9-4FAD-B9AD-254C9EFE167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62DCD4-30B2-42F2-934E-DAE295AC9BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -173,7 +173,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4870,29 +4870,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M49" workbookViewId="0">
-      <selection activeCell="R140" sqref="R140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="9.109375" style="9"/>
+    <col min="11" max="11" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="13.5546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4933,18 +4933,18 @@
         <v>1.380110322465729</v>
       </c>
       <c r="H2" s="1">
-        <f>B2-G2</f>
+        <f t="shared" ref="H2:H33" si="2">B2-G2</f>
         <v>-5.030340447557391E-2</v>
       </c>
       <c r="J2" s="9">
-        <f>D2-F2</f>
+        <f t="shared" ref="J2:J33" si="3">D2-F2</f>
         <v>-5.030340447557391E-2</v>
       </c>
       <c r="K2" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4969,19 +4969,19 @@
         <v>1.09696149636919</v>
       </c>
       <c r="H3" s="1">
-        <f>B3-G3</f>
+        <f t="shared" si="2"/>
         <v>1.7008338766656861E-2</v>
       </c>
       <c r="J3" s="9">
-        <f>D3-F3</f>
+        <f t="shared" si="3"/>
         <v>1.7008338766656861E-2</v>
       </c>
       <c r="K3" s="9">
-        <f>$K$2+A3</f>
+        <f t="shared" ref="K3:K34" si="4">$K$2+A3</f>
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5006,19 +5006,19 @@
         <v>1.082847908318249</v>
       </c>
       <c r="H4" s="1">
-        <f>B4-G4</f>
+        <f t="shared" si="2"/>
         <v>-1.2952265913005023E-2</v>
       </c>
       <c r="J4" s="9">
-        <f>D4-F4</f>
+        <f t="shared" si="3"/>
         <v>-1.2952265913005023E-2</v>
       </c>
       <c r="K4" s="9">
-        <f>$K$2+A4</f>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5043,19 +5043,19 @@
         <v>1.054359747181014</v>
       </c>
       <c r="H5" s="1">
-        <f>B5-G5</f>
+        <f t="shared" si="2"/>
         <v>-7.7116557265108909E-3</v>
       </c>
       <c r="J5" s="9">
-        <f>D5-F5</f>
+        <f t="shared" si="3"/>
         <v>-7.7116557265108909E-3</v>
       </c>
       <c r="K5" s="9">
-        <f>$K$2+A5</f>
+        <f t="shared" si="4"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5080,19 +5080,19 @@
         <v>1.043336215279298</v>
       </c>
       <c r="H6" s="1">
-        <f>B6-G6</f>
+        <f t="shared" si="2"/>
         <v>-8.2304848861789459E-3</v>
       </c>
       <c r="J6" s="9">
-        <f>D6-F6</f>
+        <f t="shared" si="3"/>
         <v>-8.2304848861789459E-3</v>
       </c>
       <c r="K6" s="9">
-        <f>$K$2+A6</f>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5117,19 +5117,19 @@
         <v>1.036636238199478</v>
       </c>
       <c r="H7" s="8">
-        <f>B7-G7</f>
+        <f t="shared" si="2"/>
         <v>-1.0028830423177926E-2</v>
       </c>
       <c r="J7" s="10">
-        <f>D7-F7</f>
+        <f t="shared" si="3"/>
         <v>-1.9785207329660048E-2</v>
       </c>
       <c r="K7" s="10">
-        <f>$K$2+A7</f>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1.0284803612393101</v>
       </c>
       <c r="H8" s="1">
-        <f>B8-G8</f>
+        <f t="shared" si="2"/>
         <v>-6.9875338549560961E-3</v>
       </c>
       <c r="I8" s="1">
@@ -5162,15 +5162,15 @@
         <v>1.1995433273942495</v>
       </c>
       <c r="J8" s="9">
-        <f>D8-F8</f>
+        <f t="shared" si="3"/>
         <v>-1.8634481642168188E-2</v>
       </c>
       <c r="K8" s="9">
-        <f>$K$2+A8</f>
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>1.023906177757814</v>
       </c>
       <c r="H9" s="1">
-        <f>B9-G9</f>
+        <f t="shared" si="2"/>
         <v>-6.0419046622219863E-3</v>
       </c>
       <c r="I9" s="1">
@@ -5203,15 +5203,15 @@
         <v>1.1587135929129053</v>
       </c>
       <c r="J9" s="9">
-        <f>D9-F9</f>
+        <f t="shared" si="3"/>
         <v>-1.8153334160865953E-2</v>
       </c>
       <c r="K9" s="9">
-        <f>$K$2+A9</f>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5236,19 +5236,19 @@
         <v>1.0170646964485059</v>
       </c>
       <c r="H10" s="1">
-        <f>B10-G10</f>
+        <f t="shared" si="2"/>
         <v>-1.8890047406909805E-3</v>
       </c>
       <c r="J10" s="9">
-        <f>D10-F10</f>
+        <f t="shared" si="3"/>
         <v>-1.3703370614239985E-2</v>
       </c>
       <c r="K10" s="9">
-        <f>$K$2+A10</f>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5273,19 +5273,19 @@
         <v>1.021844462745455</v>
       </c>
       <c r="H11" s="1">
-        <f>B11-G11</f>
+        <f t="shared" si="2"/>
         <v>-8.729025607121077E-3</v>
       </c>
       <c r="J11" s="9">
-        <f>D11-F11</f>
+        <f t="shared" si="3"/>
         <v>-1.9880475514844065E-2</v>
       </c>
       <c r="K11" s="9">
-        <f>$K$2+A11</f>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5310,19 +5310,19 @@
         <v>1.0154186420174149</v>
       </c>
       <c r="H12" s="1">
-        <f>B12-G12</f>
+        <f t="shared" si="2"/>
         <v>-3.9248985592810204E-3</v>
       </c>
       <c r="J12" s="9">
-        <f>D12-F12</f>
+        <f t="shared" si="3"/>
         <v>-1.4271104994172834E-2</v>
       </c>
       <c r="K12" s="9">
-        <f>$K$2+A12</f>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5347,19 +5347,19 @@
         <v>1.0065586537310489</v>
       </c>
       <c r="H13" s="1">
-        <f>B13-G13</f>
+        <f t="shared" si="2"/>
         <v>3.6303396260710663E-3</v>
       </c>
       <c r="J13" s="9">
-        <f>D13-F13</f>
+        <f t="shared" si="3"/>
         <v>-5.8881599522768724E-3</v>
       </c>
       <c r="K13" s="9">
-        <f>$K$2+A13</f>
+        <f t="shared" si="4"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5384,19 +5384,19 @@
         <v>1.009505709548878</v>
       </c>
       <c r="H14" s="4">
-        <f>B14-G14</f>
+        <f t="shared" si="2"/>
         <v>-3.8576615120700097E-4</v>
       </c>
       <c r="J14" s="11">
-        <f>D14-F14</f>
+        <f t="shared" si="3"/>
         <v>-9.1139471061278954E-3</v>
       </c>
       <c r="K14" s="9">
-        <f>$K$2+A14</f>
+        <f t="shared" si="4"/>
         <v>2036</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5421,19 +5421,19 @@
         <v>1.0057418287902069</v>
       </c>
       <c r="H15" s="1">
-        <f>B15-G15</f>
+        <f t="shared" si="2"/>
         <v>2.4885962585630139E-3</v>
       </c>
       <c r="J15" s="9">
-        <f>D15-F15</f>
+        <f t="shared" si="3"/>
         <v>-5.5129261271118501E-3</v>
       </c>
       <c r="K15" s="9">
-        <f>$K$2+A15</f>
+        <f t="shared" si="4"/>
         <v>2037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5458,19 +5458,19 @@
         <v>1.007259658482393</v>
       </c>
       <c r="H16" s="1">
-        <f>B16-G16</f>
+        <f t="shared" si="2"/>
         <v>2.2080832211401891E-4</v>
       </c>
       <c r="J16" s="9">
-        <f>D16-F16</f>
+        <f t="shared" si="3"/>
         <v>-7.1259130707499452E-3</v>
       </c>
       <c r="K16" s="9">
-        <f>$K$2+A16</f>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5495,19 +5495,19 @@
         <v>1.0043708277804979</v>
       </c>
       <c r="H17" s="1">
-        <f>B17-G17</f>
+        <f t="shared" si="2"/>
         <v>2.4700851498811183E-3</v>
       </c>
       <c r="J17" s="9">
-        <f>D17-F17</f>
+        <f t="shared" si="3"/>
         <v>-4.2926817471848899E-3</v>
       </c>
       <c r="K17" s="9">
-        <f>$K$2+A17</f>
+        <f t="shared" si="4"/>
         <v>2039</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5531,19 +5531,19 @@
         <v>1.0039556124597</v>
       </c>
       <c r="H18" s="1">
-        <f>B18-G18</f>
+        <f t="shared" si="2"/>
         <v>2.3344262145499339E-3</v>
       </c>
       <c r="J18" s="9">
-        <f>D18-F18</f>
+        <f t="shared" si="3"/>
         <v>-3.9099525566979043E-3</v>
       </c>
       <c r="K18" s="9">
-        <f>$K$2+A18</f>
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5564,19 +5564,19 @@
         <v>1.002300460529234</v>
       </c>
       <c r="H19" s="4">
-        <f>B19-G19</f>
+        <f t="shared" si="2"/>
         <v>3.5108918317559024E-3</v>
       </c>
       <c r="J19" s="11">
-        <f>D19-F19</f>
+        <f t="shared" si="3"/>
         <v>-2.2737819295179929E-3</v>
       </c>
       <c r="K19" s="9">
-        <f>$K$2+A19</f>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5597,19 +5597,19 @@
         <v>1.002528624078783</v>
       </c>
       <c r="H20" s="1">
-        <f>B20-G20</f>
+        <f t="shared" si="2"/>
         <v>2.8635040245190702E-3</v>
       </c>
       <c r="J20" s="9">
-        <f>D20-F20</f>
+        <f t="shared" si="3"/>
         <v>-2.5130360543679231E-3</v>
       </c>
       <c r="K20" s="9">
-        <f>$K$2+A20</f>
+        <f t="shared" si="4"/>
         <v>2042</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5630,19 +5630,19 @@
         <v>0.9998101954599804</v>
       </c>
       <c r="H21" s="1">
-        <f>B21-G21</f>
+        <f t="shared" si="2"/>
         <v>5.2122066846295168E-3</v>
       </c>
       <c r="J21" s="9">
-        <f>D21-F21</f>
+        <f t="shared" si="3"/>
         <v>1.9891245826764159E-4</v>
       </c>
       <c r="K21" s="9">
-        <f>$K$2+A21</f>
+        <f t="shared" si="4"/>
         <v>2043</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5662,19 +5662,19 @@
         <v>1.000337721158876</v>
       </c>
       <c r="H22" s="1">
-        <f>B22-G22</f>
+        <f t="shared" si="2"/>
         <v>4.3565502340581208E-3</v>
       </c>
       <c r="J22" s="9">
-        <f>D22-F22</f>
+        <f t="shared" si="3"/>
         <v>-3.3239949831198601E-4</v>
       </c>
       <c r="K22" s="9">
-        <f>$K$2+A22</f>
+        <f t="shared" si="4"/>
         <v>2044</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5695,19 +5695,19 @@
         <v>1.0024555881538679</v>
       </c>
       <c r="H23" s="6">
-        <f>B23-G23</f>
+        <f t="shared" si="2"/>
         <v>1.9458055004091257E-3</v>
       </c>
       <c r="J23" s="12">
-        <f>D23-F23</f>
+        <f t="shared" si="3"/>
         <v>-2.4524787637318912E-3</v>
       </c>
       <c r="K23" s="9">
-        <f>$K$2+A23</f>
+        <f t="shared" si="4"/>
         <v>2045</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5728,22 +5728,22 @@
         <v>1.0007566410669491</v>
       </c>
       <c r="H24" s="14">
-        <f>B24-G24</f>
+        <f t="shared" si="2"/>
         <v>3.3819843129478944E-3</v>
       </c>
       <c r="J24" s="15">
-        <f>D24-F24</f>
+        <f t="shared" si="3"/>
         <v>-2.4537713700079067E-3</v>
       </c>
       <c r="K24" s="15">
-        <f>$K$2+A24</f>
+        <f t="shared" si="4"/>
         <v>2046</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5764,22 +5764,22 @@
         <v>1.000586211340579</v>
       </c>
       <c r="H25" s="1">
-        <f>B25-G25</f>
+        <f t="shared" si="2"/>
         <v>3.3155436332339416E-3</v>
       </c>
       <c r="J25" s="9">
-        <f>D25-F25</f>
+        <f t="shared" si="3"/>
         <v>-2.2661557101160135E-3</v>
       </c>
       <c r="K25" s="9">
-        <f>$K$2+A25</f>
+        <f t="shared" si="4"/>
         <v>2047</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5800,19 +5800,19 @@
         <v>1.000454170082532</v>
       </c>
       <c r="H26" s="1">
-        <f>B26-G26</f>
+        <f t="shared" si="2"/>
         <v>3.2331335798450045E-3</v>
       </c>
       <c r="J26" s="9">
-        <f>D26-F26</f>
+        <f t="shared" si="3"/>
         <v>-2.0997999827929714E-3</v>
       </c>
       <c r="K26" s="9">
-        <f>$K$2+A26</f>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5833,19 +5833,19 @@
         <v>1.000351870476718</v>
       </c>
       <c r="H27" s="1">
-        <f>B27-G27</f>
+        <f t="shared" si="2"/>
         <v>3.14050440915703E-3</v>
       </c>
       <c r="J27" s="9">
-        <f>D27-F27</f>
+        <f t="shared" si="3"/>
         <v>-1.9516123722309597E-3</v>
       </c>
       <c r="K27" s="9">
-        <f>$K$2+A27</f>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5866,19 +5866,19 @@
         <v>1.0002726133603861</v>
       </c>
       <c r="H28" s="1">
-        <f>B28-G28</f>
+        <f t="shared" si="2"/>
         <v>3.0419256799190109E-3</v>
       </c>
       <c r="J28" s="9">
-        <f>D28-F28</f>
+        <f t="shared" si="3"/>
         <v>-1.8190318283060058E-3</v>
       </c>
       <c r="K28" s="9">
-        <f>$K$2+A28</f>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5899,19 +5899,19 @@
         <v>1.0002112085246651</v>
       </c>
       <c r="H29" s="1">
-        <f>B29-G29</f>
+        <f t="shared" si="2"/>
         <v>2.9405357885439187E-3</v>
       </c>
       <c r="J29" s="9">
-        <f>D29-F29</f>
+        <f t="shared" si="3"/>
         <v>-1.6999269543820361E-3</v>
       </c>
       <c r="K29" s="9">
-        <f>$K$2+A29</f>
+        <f t="shared" si="4"/>
         <v>2051</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5932,19 +5932,19 @@
         <v>1.000163634830032</v>
       </c>
       <c r="H30" s="1">
-        <f>B30-G30</f>
+        <f t="shared" si="2"/>
         <v>2.8386121849028889E-3</v>
       </c>
       <c r="J30" s="9">
-        <f>D30-F30</f>
+        <f t="shared" si="3"/>
         <v>-1.5925150901949792E-3</v>
       </c>
       <c r="K30" s="9">
-        <f>$K$2+A30</f>
+        <f t="shared" si="4"/>
         <v>2052</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5965,19 +5965,19 @@
         <v>1.000126776879116</v>
       </c>
       <c r="H31" s="1">
-        <f>B31-G31</f>
+        <f t="shared" si="2"/>
         <v>2.7377797593990394E-3</v>
       </c>
       <c r="J31" s="9">
-        <f>D31-F31</f>
+        <f t="shared" si="3"/>
         <v>-1.495297652291061E-3</v>
       </c>
       <c r="K31" s="9">
-        <f>$K$2+A31</f>
+        <f t="shared" si="4"/>
         <v>2053</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5998,19 +5998,19 @@
         <v>1.000098221002675</v>
       </c>
       <c r="H32" s="1">
-        <f>B32-G32</f>
+        <f t="shared" si="2"/>
         <v>2.6391711595761258E-3</v>
       </c>
       <c r="J32" s="9">
-        <f>D32-F32</f>
+        <f t="shared" si="3"/>
         <v>-1.4070084393700277E-3</v>
       </c>
       <c r="K32" s="9">
-        <f>$K$2+A32</f>
+        <f t="shared" si="4"/>
         <v>2054</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6031,19 +6031,19 @@
         <v>1.0000760971987459</v>
       </c>
       <c r="H33" s="1">
-        <f>B33-G33</f>
+        <f t="shared" si="2"/>
         <v>2.5435498179899874E-3</v>
       </c>
       <c r="J33" s="9">
-        <f>D33-F33</f>
+        <f t="shared" si="3"/>
         <v>-1.3265722222601806E-3</v>
       </c>
       <c r="K33" s="9">
-        <f>$K$2+A33</f>
+        <f t="shared" si="4"/>
         <v>2055</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6064,19 +6064,19 @@
         <v>1.000058956674228</v>
       </c>
       <c r="H34" s="1">
-        <f>B34-G34</f>
+        <f t="shared" ref="H34:H65" si="5">B34-G34</f>
         <v>2.4514041149030774E-3</v>
       </c>
       <c r="J34" s="9">
-        <f>D34-F34</f>
+        <f t="shared" ref="J34:J53" si="6">D34-F34</f>
         <v>-1.2530714732068571E-3</v>
       </c>
       <c r="K34" s="9">
-        <f>$K$2+A34</f>
+        <f t="shared" si="4"/>
         <v>2056</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -6097,19 +6097,19 @@
         <v>1.0000456769696291</v>
       </c>
       <c r="H35" s="1">
-        <f>B35-G35</f>
+        <f t="shared" si="5"/>
         <v>2.3630192403438777E-3</v>
       </c>
       <c r="J35" s="9">
-        <f>D35-F35</f>
+        <f t="shared" si="6"/>
         <v>-1.1857195351390182E-3</v>
       </c>
       <c r="K35" s="9">
-        <f>$K$2+A35</f>
+        <f t="shared" ref="K35:K58" si="7">$K$2+A35</f>
         <v>2057</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6130,19 +6130,19 @@
         <v>1.0000353884540101</v>
       </c>
       <c r="H36" s="1">
-        <f>B36-G36</f>
+        <f t="shared" si="5"/>
         <v>2.2785318602849269E-3</v>
       </c>
       <c r="J36" s="9">
-        <f>D36-F36</f>
+        <f t="shared" si="6"/>
         <v>-1.1238388930741028E-3</v>
       </c>
       <c r="K36" s="9">
-        <f>$K$2+A36</f>
+        <f t="shared" si="7"/>
         <v>2058</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6163,19 +6163,19 @@
         <v>1.0000274173765771</v>
       </c>
       <c r="H37" s="1">
-        <f>B37-G37</f>
+        <f t="shared" si="5"/>
         <v>2.1979715489368612E-3</v>
       </c>
       <c r="J37" s="9">
-        <f>D37-F37</f>
+        <f t="shared" si="6"/>
         <v>-1.0668434975980023E-3</v>
       </c>
       <c r="K37" s="9">
-        <f>$K$2+A37</f>
+        <f t="shared" si="7"/>
         <v>2059</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6196,19 +6196,19 @@
         <v>1.0000212417456309</v>
       </c>
       <c r="H38" s="1">
-        <f>B38-G38</f>
+        <f t="shared" si="5"/>
         <v>2.1212920568320914E-3</v>
       </c>
       <c r="J38" s="9">
-        <f>D38-F38</f>
+        <f t="shared" si="6"/>
         <v>-1.0142243169630749E-3</v>
       </c>
       <c r="K38" s="9">
-        <f>$K$2+A38</f>
+        <f t="shared" si="7"/>
         <v>2060</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -6229,19 +6229,19 @@
         <v>1.0000164571455701</v>
       </c>
       <c r="H39" s="1">
-        <f>B39-G39</f>
+        <f t="shared" si="5"/>
         <v>2.0483947891689613E-3</v>
       </c>
       <c r="J39" s="9">
-        <f>D39-F39</f>
+        <f t="shared" si="6"/>
         <v>-9.6553747151006952E-4</v>
       </c>
       <c r="K39" s="9">
-        <f>$K$2+A39</f>
+        <f t="shared" si="7"/>
         <v>2061</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6262,19 +6262,19 @@
         <v>1.0000127502534399</v>
       </c>
       <c r="H40" s="1">
-        <f>B40-G40</f>
+        <f t="shared" si="5"/>
         <v>1.9791463282090582E-3</v>
       </c>
       <c r="J40" s="9">
-        <f>D40-F40</f>
+        <f t="shared" si="6"/>
         <v>-9.2039444224201183E-4</v>
       </c>
       <c r="K40" s="9">
-        <f>$K$2+A40</f>
+        <f t="shared" si="7"/>
         <v>2062</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6295,19 +6295,19 @@
         <v>1.0000098783207629</v>
       </c>
       <c r="H41" s="1">
-        <f>B41-G41</f>
+        <f t="shared" si="5"/>
         <v>1.9133914136830743E-3</v>
       </c>
       <c r="J41" s="9">
-        <f>D41-F41</f>
+        <f t="shared" si="6"/>
         <v>-8.7845395276908711E-4</v>
       </c>
       <c r="K41" s="9">
-        <f>$K$2+A41</f>
+        <f t="shared" si="7"/>
         <v>2063</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6328,19 +6328,19 @@
         <v>1.0000076532769759</v>
       </c>
       <c r="H42" s="1">
-        <f>B42-G42</f>
+        <f t="shared" si="5"/>
         <v>1.8509624697651272E-3</v>
       </c>
       <c r="J42" s="9">
-        <f>D42-F42</f>
+        <f t="shared" si="6"/>
         <v>-8.394152075379413E-4</v>
       </c>
       <c r="K42" s="9">
-        <f>$K$2+A42</f>
+        <f t="shared" si="7"/>
         <v>2064</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6361,19 +6361,19 @@
         <v>1.0000059294134991</v>
       </c>
       <c r="H43" s="1">
-        <f>B43-G43</f>
+        <f t="shared" si="5"/>
         <v>1.7916865151639261E-3</v>
       </c>
       <c r="J43" s="9">
-        <f>D43-F43</f>
+        <f t="shared" si="6"/>
         <v>-8.0301223436807234E-4</v>
       </c>
       <c r="K43" s="9">
-        <f>$K$2+A43</f>
+        <f t="shared" si="7"/>
         <v>2065</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6394,15 +6394,15 @@
         <v>1.0000045938418991</v>
       </c>
       <c r="H44" s="1">
-        <f>B44-G44</f>
+        <f t="shared" si="5"/>
         <v>1.7353900981138537E-3</v>
       </c>
       <c r="J44" s="9">
-        <f>D44-F44</f>
+        <f t="shared" si="6"/>
         <v>-7.6900913040200969E-4</v>
       </c>
       <c r="K44" s="9">
-        <f>$K$2+A44</f>
+        <f t="shared" si="7"/>
         <v>2066</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -6412,7 +6412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6433,19 +6433,19 @@
         <v>1.000003559101317</v>
       </c>
       <c r="H45" s="1">
-        <f>B45-G45</f>
+        <f t="shared" si="5"/>
         <v>1.6819027475989401E-3</v>
       </c>
       <c r="J45" s="9">
-        <f>D45-F45</f>
+        <f t="shared" si="6"/>
         <v>-7.371960503770314E-4</v>
       </c>
       <c r="K45" s="9">
-        <f>$K$2+A45</f>
+        <f t="shared" si="7"/>
         <v>2067</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6466,15 +6466,15 @@
         <v>1.0000027574310271</v>
       </c>
       <c r="H46" s="1">
-        <f>B46-G46</f>
+        <f t="shared" si="5"/>
         <v>1.6310593162169873E-3</v>
       </c>
       <c r="J46" s="9">
-        <f>D46-F46</f>
+        <f t="shared" si="6"/>
         <v>-7.0738580768092696E-4</v>
       </c>
       <c r="K46" s="9">
-        <f>$K$2+A46</f>
+        <f t="shared" si="7"/>
         <v>2068</v>
       </c>
       <c r="N46" s="9">
@@ -6496,7 +6496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6517,15 +6517,15 @@
         <v>1.0000021363330771</v>
       </c>
       <c r="H47" s="1">
-        <f>B47-G47</f>
+        <f t="shared" si="5"/>
         <v>1.5827015007288114E-3</v>
       </c>
       <c r="J47" s="9">
-        <f>D47-F47</f>
+        <f t="shared" si="6"/>
         <v>-6.794109833980766E-4</v>
       </c>
       <c r="K47" s="9">
-        <f>$K$2+A47</f>
+        <f t="shared" si="7"/>
         <v>2069</v>
       </c>
       <c r="N47" s="9">
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -6568,15 +6568,15 @@
         <v>1.0000016551344251</v>
       </c>
       <c r="H48" s="1">
-        <f>B48-G48</f>
+        <f t="shared" si="5"/>
         <v>1.5366787576860386E-3</v>
       </c>
       <c r="J48" s="9">
-        <f>D48-F48</f>
+        <f t="shared" si="6"/>
         <v>-6.5312145827700618E-4</v>
       </c>
       <c r="K48" s="9">
-        <f>$K$2+A48</f>
+        <f t="shared" si="7"/>
         <v>2070</v>
       </c>
       <c r="V48" s="9">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -6609,15 +6609,15 @@
         <v>1.0000012823234321</v>
       </c>
       <c r="H49" s="1">
-        <f>B49-G49</f>
+        <f t="shared" si="5"/>
         <v>1.4928487788359313E-3</v>
       </c>
       <c r="J49" s="9">
-        <f>D49-F49</f>
+        <f t="shared" si="6"/>
         <v>-6.2838229822692604E-4</v>
       </c>
       <c r="K49" s="9">
-        <f>$K$2+A49</f>
+        <f t="shared" si="7"/>
         <v>2071</v>
       </c>
       <c r="V49" s="9">
@@ -6632,7 +6632,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -6653,15 +6653,15 @@
         <v>1.0000009934863059</v>
       </c>
       <c r="H50" s="1">
-        <f>B50-G50</f>
+        <f t="shared" si="5"/>
         <v>1.4510776505352041E-3</v>
       </c>
       <c r="J50" s="9">
-        <f>D50-F50</f>
+        <f t="shared" si="6"/>
         <v>-6.0507193651693214E-4</v>
       </c>
       <c r="K50" s="9">
-        <f>$K$2+A50</f>
+        <f t="shared" si="7"/>
         <v>2072</v>
       </c>
       <c r="N50" s="1">
@@ -6684,7 +6684,7 @@
         <v>1.2</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" ref="W50:W53" si="2">1/V50</f>
+        <f t="shared" ref="W50:W53" si="8">1/V50</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="X50" s="7">
@@ -6692,7 +6692,7 @@
         <v>-7.575757575757569E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -6713,15 +6713,15 @@
         <v>1.0000007697083391</v>
       </c>
       <c r="H51" s="1">
-        <f>B51-G51</f>
+        <f t="shared" si="5"/>
         <v>1.4112397905758911E-3</v>
       </c>
       <c r="J51" s="9">
-        <f>D51-F51</f>
+        <f t="shared" si="6"/>
         <v>-5.8308060589506994E-4</v>
       </c>
       <c r="K51" s="9">
-        <f>$K$2+A51</f>
+        <f t="shared" si="7"/>
         <v>2073</v>
       </c>
       <c r="M51" s="1">
@@ -6744,22 +6744,22 @@
         <v>9.0909090909090939E-2</v>
       </c>
       <c r="R51" s="17">
-        <f>Q51/$P$140</f>
+        <f t="shared" ref="R51:R82" si="9">Q51/$P$140</f>
         <v>0.90909090909090851</v>
       </c>
       <c r="V51" s="9">
         <v>1.3</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" ref="X51:X53" si="3">W51-W50</f>
+        <f t="shared" ref="X51:X53" si="10">W51-W50</f>
         <v>-6.4102564102564208E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -6780,15 +6780,15 @@
         <v>1.0000005963352729</v>
       </c>
       <c r="H52" s="1">
-        <f>B52-G52</f>
+        <f t="shared" si="5"/>
         <v>1.3732177321341688E-3</v>
       </c>
       <c r="J52" s="9">
-        <f>D52-F52</f>
+        <f t="shared" si="6"/>
         <v>-5.6230898203413204E-4</v>
       </c>
       <c r="K52" s="9">
-        <f>$K$2+A52</f>
+        <f t="shared" si="7"/>
         <v>2074</v>
       </c>
       <c r="M52" s="1">
@@ -6796,14 +6796,14 @@
         <v>1.32</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ref="N52:N115" si="4">O52/O51</f>
+        <f t="shared" ref="N52:N115" si="11">O52/O51</f>
         <v>1.0909090909090908</v>
       </c>
       <c r="O52" s="9">
         <v>1.2</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" ref="P52:P114" si="5">1/O52</f>
+        <f t="shared" ref="P52:P114" si="12">1/O52</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q52" s="1">
@@ -6811,22 +6811,22 @@
         <v>7.575757575757569E-2</v>
       </c>
       <c r="R52" s="17">
-        <f>Q52/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.75757575757575613</v>
       </c>
       <c r="V52" s="9">
         <v>1.4</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-5.4945054945054861E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -6847,53 +6847,53 @@
         <v>1.0000004620136489</v>
       </c>
       <c r="H53" s="1">
-        <f>B53-G53</f>
+        <f t="shared" si="5"/>
         <v>1.3369018066791138E-3</v>
       </c>
       <c r="J53" s="9">
-        <f>D53-F53</f>
+        <f t="shared" si="6"/>
         <v>-5.4266700626404152E-4</v>
       </c>
       <c r="K53" s="9">
-        <f>$K$2+A53</f>
+        <f t="shared" si="7"/>
         <v>2075</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" ref="M53:M116" si="6">M52*N53</f>
+        <f t="shared" ref="M53:M116" si="13">M52*N53</f>
         <v>1.4300000000000002</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0833333333333335</v>
       </c>
       <c r="O53" s="9">
         <v>1.3</v>
       </c>
       <c r="P53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" ref="Q53:Q113" si="7">P52-P53</f>
+        <f t="shared" ref="Q53:Q113" si="14">P52-P53</f>
         <v>6.4102564102564208E-2</v>
       </c>
       <c r="R53" s="17">
-        <f>Q53/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.64102564102564141</v>
       </c>
       <c r="V53" s="9">
         <v>1.5</v>
       </c>
       <c r="W53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="X53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>-4.7619047619047672E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -6914,34 +6914,34 @@
         <v>1.000000357947318</v>
       </c>
       <c r="H54" s="1">
-        <f>B54-G54</f>
+        <f t="shared" si="5"/>
         <v>1.3021897639569069E-3</v>
       </c>
       <c r="K54" s="9">
-        <f>$K$2+A54</f>
+        <f t="shared" si="7"/>
         <v>2076</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.54</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="O54" s="9">
         <v>1.4</v>
       </c>
       <c r="P54" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.4945054945054861E-2</v>
       </c>
       <c r="R54" s="17">
-        <f>Q54/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.54945054945054805</v>
       </c>
       <c r="X54" s="1">
@@ -6965,7 +6965,7 @@
         <v>9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -6986,34 +6986,34 @@
         <v>1.000000277321422</v>
       </c>
       <c r="H55" s="1">
-        <f>B55-G55</f>
+        <f t="shared" si="5"/>
         <v>1.2689863568560167E-3</v>
       </c>
       <c r="K55" s="9">
-        <f>$K$2+A55</f>
+        <f t="shared" si="7"/>
         <v>2077</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.65</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0714285714285714</v>
       </c>
       <c r="O55" s="9">
         <v>1.5</v>
       </c>
       <c r="P55" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="R55" s="17">
-        <f>Q55/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.47619047619047622</v>
       </c>
       <c r="X55" s="1">
@@ -7037,7 +7037,7 @@
         <v>0.13636363636363641</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -7058,38 +7058,38 @@
         <v>1.000000214856118</v>
       </c>
       <c r="H56" s="1">
-        <f>B56-G56</f>
+        <f t="shared" si="5"/>
         <v>1.2372029111888949E-3</v>
       </c>
       <c r="K56" s="9">
-        <f>$K$2+A56</f>
+        <f t="shared" si="7"/>
         <v>2078</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.7599999999999998</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="O56" s="9">
         <v>1.6</v>
       </c>
       <c r="P56" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.625</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="R56" s="17">
-        <f>Q56/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666585</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -7110,38 +7110,38 @@
         <v>1.0000001664608209</v>
       </c>
       <c r="H57" s="1">
-        <f>B57-G57</f>
+        <f t="shared" si="5"/>
         <v>1.2067568945330898E-3</v>
       </c>
       <c r="K57" s="9">
-        <f>$K$2+A57</f>
+        <f t="shared" si="7"/>
         <v>2079</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.8699999999999997</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0625</v>
       </c>
       <c r="O57" s="9">
         <v>1.7</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.6764705882352922E-2</v>
       </c>
       <c r="R57" s="17">
-        <f>Q57/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.36764705882352883</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -7162,38 +7162,38 @@
         <v>1.0000001289663289</v>
       </c>
       <c r="H58" s="1">
-        <f>B58-G58</f>
+        <f t="shared" si="5"/>
         <v>1.1775714939090687E-3</v>
       </c>
       <c r="K58" s="9">
-        <f>$K$2+A58</f>
+        <f t="shared" si="7"/>
         <v>2080</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.9799999999999998</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="O58" s="9">
         <v>1.8</v>
       </c>
       <c r="P58" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.2679738562091498E-2</v>
       </c>
       <c r="R58" s="17">
-        <f>Q58/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.32679738562091465</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -7214,34 +7214,34 @@
         <v>1.00000009991729</v>
       </c>
       <c r="H59" s="1">
-        <f>B59-G59</f>
+        <f t="shared" si="5"/>
         <v>1.1495752088550582E-3</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.09</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="O59" s="9">
         <v>1.9</v>
       </c>
       <c r="P59" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.9239766081871399E-2</v>
       </c>
       <c r="R59" s="17">
-        <f>Q59/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.29239766081871371</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -7262,34 +7262,34 @@
         <v>1.000000077411406</v>
       </c>
       <c r="H60" s="1">
-        <f>B60-G60</f>
+        <f t="shared" si="5"/>
         <v>1.1227014640240451E-3</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.1999999999999997</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="O60" s="9">
         <v>2</v>
       </c>
       <c r="P60" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.6315789473684181E-2</v>
       </c>
       <c r="R60" s="17">
-        <f>Q60/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.26315789473684154</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -7310,34 +7310,34 @@
         <v>1.000000059974862</v>
       </c>
       <c r="H61" s="1">
-        <f>B61-G61</f>
+        <f t="shared" si="5"/>
         <v>1.0968882437061289E-3</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.3099999999999996</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.05</v>
       </c>
       <c r="O61" s="9">
         <v>2.1</v>
       </c>
       <c r="P61" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="R61" s="17">
-        <f>Q61/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.23809523809523811</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -7358,34 +7358,34 @@
         <v>1.0000000464658161</v>
       </c>
       <c r="H62" s="1">
-        <f>B62-G62</f>
+        <f t="shared" si="5"/>
         <v>1.0720777494208633E-3</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.42</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0476190476190477</v>
       </c>
       <c r="O62" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="P62" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.1645021645021634E-2</v>
       </c>
       <c r="R62" s="17">
-        <f>Q62/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.21645021645021612</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -7406,34 +7406,34 @@
         <v>1.000000035999616</v>
       </c>
       <c r="H63" s="1">
-        <f>B63-G63</f>
+        <f t="shared" si="5"/>
         <v>1.0482160808380492E-3</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.5299999999999994</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0454545454545452</v>
       </c>
       <c r="O63" s="9">
         <v>2.2999999999999998</v>
       </c>
       <c r="P63" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.43478260869565222</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.9762845849802313E-2</v>
       </c>
       <c r="R63" s="17">
-        <f>Q63/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.19762845849802294</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -7454,34 +7454,34 @@
         <v>1.0000000278908781</v>
       </c>
       <c r="H64" s="1">
-        <f>B64-G64</f>
+        <f t="shared" si="5"/>
         <v>1.0252529396259646E-3</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.6399999999999992</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0434782608695652</v>
       </c>
       <c r="O64" s="9">
         <v>2.4</v>
       </c>
       <c r="P64" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.8115942028985532E-2</v>
       </c>
       <c r="R64" s="17">
-        <f>Q64/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.18115942028985513</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -7502,34 +7502,34 @@
         <v>1.0000000216085929</v>
       </c>
       <c r="H65" s="1">
-        <f>B65-G65</f>
+        <f t="shared" si="5"/>
         <v>1.0031413554931756E-3</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.7499999999999996</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="O65" s="9">
         <v>2.5</v>
       </c>
       <c r="P65" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.6666666666666663E-2</v>
       </c>
       <c r="R65" s="17">
-        <f>Q65/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.16666666666666646</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>1.000981854174684</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C105" si="8">C67*B66</f>
+        <f t="shared" ref="C66:C105" si="15">C67*B66</f>
         <v>1.0296182036302963</v>
       </c>
       <c r="D66" s="1">
@@ -7550,34 +7550,34 @@
         <v>1.0000000167413621</v>
       </c>
       <c r="H66" s="1">
-        <f>B66-G66</f>
+        <f t="shared" ref="H66:H97" si="16">B66-G66</f>
         <v>9.8183743332191931E-4</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.8599999999999994</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.04</v>
       </c>
       <c r="O66" s="9">
         <v>2.6</v>
       </c>
       <c r="P66" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.5384615384615441E-2</v>
       </c>
       <c r="R66" s="17">
-        <f>Q66/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.15384615384615424</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>1.00096131309068</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0286082603157909</v>
       </c>
       <c r="D67" s="1">
@@ -7598,34 +7598,34 @@
         <v>1.000000012970452</v>
       </c>
       <c r="H67" s="1">
-        <f>B67-G67</f>
+        <f t="shared" si="16"/>
         <v>9.6130012022799249E-4</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2.9699999999999998</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="O67" s="9">
         <v>2.7</v>
       </c>
       <c r="P67" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.4245014245014231E-2</v>
       </c>
       <c r="R67" s="17">
-        <f>Q67/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.14245014245014218</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>1.000941501040165</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0276203953774647</v>
       </c>
       <c r="D68" s="1">
@@ -7646,34 +7646,34 @@
         <v>1.0000000100489199</v>
       </c>
       <c r="H68" s="1">
-        <f>B68-G68</f>
+        <f t="shared" si="16"/>
         <v>9.4149099124507529E-4</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.037037037037037</v>
       </c>
       <c r="O68" s="9">
         <v>2.8</v>
       </c>
       <c r="P68" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.3227513227513199E-2</v>
       </c>
       <c r="R68" s="17">
-        <f>Q68/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.13227513227513185</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>1.0009223818377599</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0266537997571041</v>
       </c>
       <c r="D69" s="1">
@@ -7694,34 +7694,34 @@
         <v>1.0000000077854501</v>
       </c>
       <c r="H69" s="1">
-        <f>B69-G69</f>
+        <f t="shared" si="16"/>
         <v>9.2237405230988223E-4</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.19</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="O69" s="9">
         <v>2.9</v>
       </c>
       <c r="P69" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.2315270935960576E-2</v>
       </c>
       <c r="R69" s="17">
-        <f>Q69/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.12315270935960564</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1.0009039215911191</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0257077055986095</v>
       </c>
       <c r="D70" s="1">
@@ -7742,34 +7742,34 @@
         <v>1.000000006031815</v>
       </c>
       <c r="H70" s="1">
-        <f>B70-G70</f>
+        <f t="shared" si="16"/>
         <v>9.039155593040249E-4</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0344827586206897</v>
       </c>
       <c r="O70" s="9">
         <v>3</v>
       </c>
       <c r="P70" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.149425287356326E-2</v>
       </c>
       <c r="R70" s="17">
-        <f>Q70/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.11494252873563247</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>1.000886088525025</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0247813835798147</v>
       </c>
       <c r="D71" s="1">
@@ -7790,34 +7790,34 @@
         <v>1.0000000046731781</v>
       </c>
       <c r="H71" s="1">
-        <f>B71-G71</f>
+        <f t="shared" si="16"/>
         <v>8.8608385184696381E-4</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.4100000000000006</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="O71" s="9">
         <v>3.1</v>
       </c>
       <c r="P71" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.32258064516129031</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.0752688172043001E-2</v>
       </c>
       <c r="R71" s="17">
-        <f>Q71/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.1075268817204299</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1.000868852821261</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0238741404528895</v>
       </c>
       <c r="D72" s="1">
@@ -7838,34 +7838,34 @@
         <v>1.000000003620567</v>
       </c>
       <c r="H72" s="1">
-        <f>B72-G72</f>
+        <f t="shared" si="16"/>
         <v>8.6884920069407734E-4</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.5200000000000005</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.032258064516129</v>
       </c>
       <c r="O72" s="9">
         <v>3.2</v>
       </c>
       <c r="P72" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.0080645161290314E-2</v>
       </c>
       <c r="R72" s="17">
-        <f>Q72/$P$140</f>
+        <f t="shared" si="9"/>
         <v>0.10080645161290304</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>1.000852186472643</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0229853167743015</v>
       </c>
       <c r="D73" s="1">
@@ -7886,34 +7886,34 @@
         <v>1.000000002805052</v>
       </c>
       <c r="H73" s="1">
-        <f>B73-G73</f>
+        <f t="shared" si="16"/>
         <v>8.5218366759098885E-4</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.63</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0312499999999998</v>
       </c>
       <c r="O73" s="9">
         <v>3.3</v>
       </c>
       <c r="P73" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.30303030303030304</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.4696969696969613E-3</v>
       </c>
       <c r="R73" s="17">
-        <f>Q73/$P$140</f>
+        <f t="shared" si="9"/>
         <v>9.4696969696969516E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>1.000836063149791</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0221142848072935</v>
       </c>
       <c r="D74" s="1">
@@ -7934,34 +7934,34 @@
         <v>1.000000002173228</v>
       </c>
       <c r="H74" s="1">
-        <f>B74-G74</f>
+        <f t="shared" si="16"/>
         <v>8.3606097656296896E-4</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.7399999999999998</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="O74" s="9">
         <v>3.4</v>
       </c>
       <c r="P74" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.9126559714794995E-3</v>
       </c>
       <c r="R74" s="17">
-        <f>Q74/$P$140</f>
+        <f t="shared" si="9"/>
         <v>8.9126559714794898E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>1.0008204580793529</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0212604465815676</v>
       </c>
       <c r="D75" s="1">
@@ -7982,34 +7982,34 @@
         <v>1.0000000016837189</v>
       </c>
       <c r="H75" s="1">
-        <f>B75-G75</f>
+        <f t="shared" si="16"/>
         <v>8.2045639563399497E-4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.85</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="O75" s="9">
         <v>3.5</v>
       </c>
       <c r="P75" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.4033613445378408E-3</v>
       </c>
       <c r="R75" s="17">
-        <f>Q75/$P$140</f>
+        <f t="shared" si="9"/>
         <v>8.4033613445378325E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>1.0008053479325829</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0204232320964346</v>
       </c>
       <c r="D76" s="1">
@@ -8030,34 +8030,34 @@
         <v>1.000000001304469</v>
       </c>
       <c r="H76" s="1">
-        <f>B76-G76</f>
+        <f t="shared" si="16"/>
         <v>8.0534662811393432E-4</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.9600000000000004</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="O76" s="9">
         <v>3.6</v>
       </c>
       <c r="P76" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.9365079365079083E-3</v>
       </c>
       <c r="R76" s="17">
-        <f>Q76/$P$140</f>
+        <f t="shared" si="9"/>
         <v>7.9365079365079E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1.0007907107232461</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0196020976550308</v>
       </c>
       <c r="D77" s="1">
@@ -8078,34 +8078,34 @@
         <v>1.000000001010644</v>
       </c>
       <c r="H77" s="1">
-        <f>B77-G77</f>
+        <f t="shared" si="16"/>
         <v>7.90709712602089E-4</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.0700000000000012</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0277777777777779</v>
       </c>
       <c r="O77" s="9">
         <v>3.7</v>
       </c>
       <c r="P77" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.27027027027027023</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.5075075075075604E-3</v>
       </c>
       <c r="R77" s="17">
-        <f>Q77/$P$140</f>
+        <f t="shared" si="9"/>
         <v>7.507507507507552E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>1.0007765257139669</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0187965243184465</v>
       </c>
       <c r="D78" s="1">
@@ -8126,34 +8126,34 @@
         <v>1.000000000783001</v>
       </c>
       <c r="H78" s="1">
-        <f>B78-G78</f>
+        <f t="shared" si="16"/>
         <v>7.7652493096591613E-4</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.1800000000000006</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.027027027027027</v>
       </c>
       <c r="O78" s="9">
         <v>3.8</v>
       </c>
       <c r="P78" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.1123755334281391E-3</v>
       </c>
       <c r="R78" s="17">
-        <f>Q78/$P$140</f>
+        <f t="shared" si="9"/>
         <v>7.1123755334281322E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>1.0007627733302371</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0180060164696847</v>
       </c>
       <c r="D79" s="1">
@@ -8174,34 +8174,34 @@
         <v>1.0000000006066341</v>
       </c>
       <c r="H79" s="1">
-        <f>B79-G79</f>
+        <f t="shared" si="16"/>
         <v>7.627727236030335E-4</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.2900000000000009</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0263157894736843</v>
       </c>
       <c r="O79" s="9">
         <v>3.9</v>
       </c>
       <c r="P79" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.25641025641025644</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.7476383265856477E-3</v>
       </c>
       <c r="R79" s="17">
-        <f>Q79/$P$140</f>
+        <f t="shared" si="9"/>
         <v>6.7476383265856407E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1.0007494350813351</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0172301004783255</v>
       </c>
       <c r="D80" s="1">
@@ -8222,34 +8222,34 @@
         <v>1.0000000004699929</v>
       </c>
       <c r="H80" s="1">
-        <f>B80-G80</f>
+        <f t="shared" si="16"/>
         <v>7.4943461134213685E-4</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.4000000000000012</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0256410256410258</v>
       </c>
       <c r="O80" s="9">
         <v>4</v>
       </c>
       <c r="P80" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.410256410256443E-3</v>
       </c>
       <c r="R80" s="17">
-        <f>Q80/$P$140</f>
+        <f t="shared" si="9"/>
         <v>6.4102564102564361E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>1.0007364934875651</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0164683234576606</v>
       </c>
       <c r="D81" s="1">
@@ -8270,34 +8270,34 @@
         <v>1.0000000003641289</v>
       </c>
       <c r="H81" s="1">
-        <f>B81-G81</f>
+        <f t="shared" si="16"/>
         <v>7.3649312343615492E-4</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.5100000000000007</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0249999999999999</v>
       </c>
       <c r="O81" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="P81" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.24390243902439027</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.0975609756097338E-3</v>
       </c>
       <c r="R81" s="17">
-        <f>Q81/$P$140</f>
+        <f t="shared" si="9"/>
         <v>6.0975609756097275E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1.000723932013198</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0157202521067958</v>
       </c>
       <c r="D82" s="1">
@@ -8318,34 +8318,34 @@
         <v>1.000000000282111</v>
       </c>
       <c r="H82" s="1">
-        <f>B82-G82</f>
+        <f t="shared" si="16"/>
         <v>7.2393173108697972E-4</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.620000000000001</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.024390243902439</v>
       </c>
       <c r="O82" s="9">
         <v>4.2</v>
       </c>
       <c r="P82" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.23809523809523808</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.8072009291521842E-3</v>
       </c>
       <c r="R82" s="17">
-        <f>Q82/$P$140</f>
+        <f t="shared" si="9"/>
         <v>5.807200929152178E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>1.0007117350046351</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0149854716309514</v>
       </c>
       <c r="D83" s="1">
@@ -8366,34 +8366,34 @@
         <v>1.0000000002185669</v>
       </c>
       <c r="H83" s="1">
-        <f>B83-G83</f>
+        <f t="shared" si="16"/>
         <v>7.1173478606811891E-4</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="O83" s="9">
         <v>4.3</v>
       </c>
       <c r="P83" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.23255813953488372</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5370985603543643E-3</v>
       </c>
       <c r="R83" s="17">
-        <f>Q83/$P$140</f>
+        <f t="shared" ref="R83:R114" si="17">Q83/$P$140</f>
         <v>5.5370985603543588E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>1.000699887633308</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0142635847337698</v>
       </c>
       <c r="D84" s="1">
@@ -8414,34 +8414,34 @@
         <v>1.0000000001693361</v>
       </c>
       <c r="H84" s="1">
-        <f>B84-G84</f>
+        <f t="shared" si="16"/>
         <v>6.9988746397187107E-4</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.8400000000000007</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0232558139534884</v>
       </c>
       <c r="O84" s="9">
         <v>4.4000000000000004</v>
       </c>
       <c r="P84" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.22727272727272727</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.2854122621564525E-3</v>
       </c>
       <c r="R84" s="17">
-        <f>Q84/$P$140</f>
+        <f t="shared" si="17"/>
         <v>5.285412262156447E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1.000688375842915</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0135542106760305</v>
       </c>
       <c r="D85" s="1">
@@ -8462,34 +8462,34 @@
         <v>1.0000000001311939</v>
       </c>
       <c r="H85" s="1">
-        <f>B85-G85</f>
+        <f t="shared" si="16"/>
         <v>6.883757117210898E-4</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.9500000000000011</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0227272727272727</v>
       </c>
       <c r="O85" s="9">
         <v>4.5</v>
       </c>
       <c r="P85" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.0505050505050553E-3</v>
       </c>
       <c r="R85" s="17">
-        <f>Q85/$P$140</f>
+        <f t="shared" si="17"/>
         <v>5.0505050505050504E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>1.000677186300609</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0128569843956448</v>
       </c>
       <c r="D86" s="1">
@@ -8510,34 +8510,34 @@
         <v>1.0000000001016429</v>
       </c>
       <c r="H86" s="1">
-        <f>B86-G86</f>
+        <f t="shared" si="16"/>
         <v>6.7718619896606214E-4</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.0600000000000005</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0222222222222221</v>
       </c>
       <c r="O86" s="9">
         <v>4.5999999999999996</v>
       </c>
       <c r="P86" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.21739130434782611</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.8309178743961012E-3</v>
       </c>
       <c r="R86" s="17">
-        <f>Q86/$P$140</f>
+        <f t="shared" si="17"/>
         <v>4.8309178743960964E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1.0006663063518</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0121715556842692</v>
       </c>
       <c r="D87" s="1">
@@ -8558,34 +8558,34 @@
         <v>1.0000000000787479</v>
       </c>
       <c r="H87" s="1">
-        <f>B87-G87</f>
+        <f t="shared" si="16"/>
         <v>6.6630627305208634E-4</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.1700000000000008</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0217391304347827</v>
       </c>
       <c r="O87" s="9">
         <v>4.7</v>
       </c>
       <c r="P87" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.21276595744680851</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.6253469010175963E-3</v>
       </c>
       <c r="R87" s="17">
-        <f>Q87/$P$140</f>
+        <f t="shared" si="17"/>
         <v>4.6253469010175914E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>1.0006557239782701</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0114975884162771</v>
       </c>
       <c r="D88" s="1">
@@ -8606,34 +8606,34 @@
         <v>1.000000000061011</v>
       </c>
       <c r="H88" s="1">
-        <f>B88-G88</f>
+        <f t="shared" si="16"/>
         <v>6.5572391725909895E-4</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.28</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0212765957446808</v>
       </c>
       <c r="O88" s="9">
         <v>4.8</v>
       </c>
       <c r="P88" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.4326241134751698E-3</v>
       </c>
       <c r="R88" s="17">
-        <f>Q88/$P$140</f>
+        <f t="shared" si="17"/>
         <v>4.432624113475165E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1.0006454277593171</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0108347598261902</v>
       </c>
       <c r="D89" s="1">
@@ -8654,34 +8654,34 @@
         <v>1.000000000047268</v>
       </c>
       <c r="H89" s="1">
-        <f>B89-G89</f>
+        <f t="shared" si="16"/>
         <v>6.4542771204911809E-4</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.3900000000000015</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0208333333333335</v>
       </c>
       <c r="O89" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="P89" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.2040816326530612</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.2517006802721413E-3</v>
       </c>
       <c r="R89" s="17">
-        <f>Q89/$P$140</f>
+        <f t="shared" si="17"/>
         <v>4.2517006802721372E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1.000635406835684</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0101827598310118</v>
       </c>
       <c r="D90" s="1">
@@ -8702,34 +8702,34 @@
         <v>1.0000000000366209</v>
       </c>
       <c r="H90" s="1">
-        <f>B90-G90</f>
+        <f t="shared" si="16"/>
         <v>6.3540679906304298E-4</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.5000000000000018</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0204081632653061</v>
       </c>
       <c r="O90" s="9">
         <v>5</v>
       </c>
       <c r="P90" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.0816326530611902E-3</v>
       </c>
       <c r="R90" s="17">
-        <f>Q90/$P$140</f>
+        <f t="shared" si="17"/>
         <v>4.081632653061186E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>1.0006256508760409</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.00954129039419</v>
       </c>
       <c r="D91" s="1">
@@ -8750,34 +8750,34 @@
         <v>1.0000000000283731</v>
       </c>
       <c r="H91" s="1">
-        <f>B91-G91</f>
+        <f t="shared" si="16"/>
         <v>6.2565084766785795E-4</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.6100000000000021</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.02</v>
       </c>
       <c r="O91" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="P91" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.19607843137254904</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9215686274509665E-3</v>
       </c>
       <c r="R91" s="17">
-        <f>Q91/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.9215686274509623E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1.0006161500458071</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0089100649282212</v>
       </c>
       <c r="D92" s="1">
@@ -8798,34 +8798,34 @@
         <v>1.000000000021982</v>
       </c>
       <c r="H92" s="1">
-        <f>B92-G92</f>
+        <f t="shared" si="16"/>
         <v>6.1615002382509054E-4</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.7200000000000033</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0196078431372551</v>
       </c>
       <c r="O92" s="9">
         <v>5.2</v>
       </c>
       <c r="P92" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.19230769230769229</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.770739064856754E-3</v>
       </c>
       <c r="R92" s="17">
-        <f>Q92/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.7707390648567499E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>1.0006068949781399</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0082888077331498</v>
       </c>
       <c r="D93" s="1">
@@ -8846,34 +8846,34 @@
         <v>1.0000000000170299</v>
       </c>
       <c r="H93" s="1">
-        <f>B93-G93</f>
+        <f t="shared" si="16"/>
         <v>6.0689496110999386E-4</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.8300000000000027</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0192307692307692</v>
       </c>
       <c r="O93" s="9">
         <v>5.3</v>
       </c>
       <c r="P93" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.18867924528301888</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.6284470246734091E-3</v>
       </c>
       <c r="R93" s="17">
-        <f>Q93/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.6284470246734056E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1.0005978767469119</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.007677253468434</v>
       </c>
       <c r="D94" s="1">
@@ -8894,34 +8894,34 @@
         <v>1.000000000013195</v>
       </c>
       <c r="H94" s="1">
-        <f>B94-G94</f>
+        <f t="shared" si="16"/>
         <v>5.9787673371691774E-4</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.9400000000000031</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0188679245283019</v>
       </c>
       <c r="O94" s="9">
         <v>5.4</v>
       </c>
       <c r="P94" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4940600978337066E-3</v>
       </c>
       <c r="R94" s="17">
-        <f>Q94/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.4940600978337032E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>1.0005890868415119</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0070751466558554</v>
       </c>
       <c r="D95" s="1">
@@ -8942,34 +8942,34 @@
         <v>1.000000000010222</v>
       </c>
       <c r="H95" s="1">
-        <f>B95-G95</f>
+        <f t="shared" si="16"/>
         <v>5.890868312898867E-4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.0499999999999918</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0185185185185166</v>
       </c>
       <c r="O95" s="9">
         <v>5.4999999999999902</v>
       </c>
       <c r="P95" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.18181818181818213</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.3670033670030464E-3</v>
       </c>
       <c r="R95" s="17">
-        <f>Q95/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.3670033670030429E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1.000580517143342</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0064822412113423</v>
       </c>
       <c r="D96" s="1">
@@ -8990,34 +8990,34 @@
         <v>1.0000000000079201</v>
       </c>
       <c r="H96" s="1">
-        <f>B96-G96</f>
+        <f t="shared" si="16"/>
         <v>5.8051713542184302E-4</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.1599999999999913</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0181818181818181</v>
       </c>
       <c r="O96" s="9">
         <v>5.5999999999999899</v>
       </c>
       <c r="P96" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.17857142857142888</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.2467532467532478E-3</v>
       </c>
       <c r="R96" s="17">
-        <f>Q96/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.2467532467532444E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1.0005721599038759</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0058983000037316</v>
       </c>
       <c r="D97" s="1">
@@ -9038,34 +9038,34 @@
         <v>1.000000000006136</v>
       </c>
       <c r="H97" s="1">
-        <f>B97-G97</f>
+        <f t="shared" si="16"/>
         <v>5.7215989773995446E-4</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.2700000000000031</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0178571428571448</v>
       </c>
       <c r="O97" s="9">
         <v>5.7</v>
       </c>
       <c r="P97" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.17543859649122806</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.1328320802008203E-3</v>
       </c>
       <c r="R97" s="17">
-        <f>Q97/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.1328320802008168E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>1.000564007724152</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0053230944386533</v>
       </c>
       <c r="D98" s="1">
@@ -9086,34 +9086,34 @@
         <v>1.000000000004754</v>
       </c>
       <c r="H98" s="1">
-        <f>B98-G98</f>
+        <f t="shared" ref="H98:H129" si="18">B98-G98</f>
         <v>5.6400771939801864E-4</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.3799999999999928</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0175438596491211</v>
       </c>
       <c r="O98" s="9">
         <v>5.7999999999999901</v>
       </c>
       <c r="P98" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.17241379310344856</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.0248033877794955E-3</v>
       </c>
       <c r="R98" s="17">
-        <f>Q98/$P$140</f>
+        <f t="shared" si="17"/>
         <v>3.0248033877794924E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1.0005560535356071</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.004756404065869</v>
       </c>
       <c r="D99" s="1">
@@ -9134,34 +9134,34 @@
         <v>1.0000000000036831</v>
       </c>
       <c r="H99" s="1">
-        <f>B99-G99</f>
+        <f t="shared" si="18"/>
         <v>5.5605353192400564E-4</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.4899999999999922</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0172413793103448</v>
       </c>
       <c r="O99" s="9">
         <v>5.8999999999999897</v>
       </c>
       <c r="P99" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.16949152542372911</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.9222676797194536E-3</v>
       </c>
       <c r="R99" s="17">
-        <f>Q99/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.9222676797194504E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>1.0005482905821379</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0041980162085067</v>
       </c>
       <c r="D100" s="1">
@@ -9182,34 +9182,34 @@
         <v>1.0000000000028531</v>
       </c>
       <c r="H100" s="1">
-        <f>B100-G100</f>
+        <f t="shared" si="18"/>
         <v>5.4829057928484914E-4</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.5999999999999934</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0169491525423731</v>
       </c>
       <c r="O100" s="9">
         <v>5.9999999999999902</v>
       </c>
       <c r="P100" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.16666666666666693</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.8248587570621764E-3</v>
       </c>
       <c r="R100" s="17">
-        <f>Q100/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.8248587570621736E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1.0005407124033121</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0036477256127692</v>
       </c>
       <c r="D101" s="1">
@@ -9230,34 +9230,34 @@
         <v>1.0000000000022109</v>
       </c>
       <c r="H101" s="1">
-        <f>B101-G101</f>
+        <f t="shared" si="18"/>
         <v>5.4071240110120655E-4</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.7099999999999929</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0166666666666666</v>
       </c>
       <c r="O101" s="9">
         <v>6.0999999999999899</v>
       </c>
       <c r="P101" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.16393442622950846</v>
       </c>
       <c r="Q101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.732240437158473E-3</v>
       </c>
       <c r="R101" s="17">
-        <f>Q101/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.7322404371584702E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1.0005333128186309</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0031053341167837</v>
       </c>
       <c r="D102" s="1">
@@ -9278,34 +9278,34 @@
         <v>1.0000000000017131</v>
       </c>
       <c r="H102" s="1">
-        <f>B102-G102</f>
+        <f t="shared" si="18"/>
         <v>5.3331281691781918E-4</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.8199999999999932</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0163934426229508</v>
       </c>
       <c r="O102" s="9">
         <v>6.1999999999999904</v>
       </c>
       <c r="P102" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.16129032258064541</v>
       </c>
       <c r="Q102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.6441036488630554E-3</v>
       </c>
       <c r="R102" s="17">
-        <f>Q102/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.6441036488630526E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>1.0005260859127809</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0025706503373757</v>
       </c>
       <c r="D103" s="1">
@@ -9326,34 +9326,34 @@
         <v>1.0000000000013269</v>
       </c>
       <c r="H103" s="1">
-        <f>B103-G103</f>
+        <f t="shared" si="18"/>
         <v>5.2608591145397732E-4</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.9299999999999926</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0161290322580645</v>
       </c>
       <c r="O103" s="9">
         <v>6.2999999999999901</v>
       </c>
       <c r="P103" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.15873015873015897</v>
       </c>
       <c r="Q103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.5601638504864355E-3</v>
       </c>
       <c r="R103" s="17">
-        <f>Q103/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.5601638504864327E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>1.000519026021796</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0020434893736223</v>
       </c>
       <c r="D104" s="1">
@@ -9374,34 +9374,34 @@
         <v>1.0000000000010281</v>
       </c>
       <c r="H104" s="1">
-        <f>B104-G104</f>
+        <f t="shared" si="18"/>
         <v>5.1902602076792093E-4</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.039999999999992</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0158730158730158</v>
       </c>
       <c r="O104" s="9">
         <v>6.3999999999999897</v>
       </c>
       <c r="P104" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.15625000000000025</v>
       </c>
       <c r="Q104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.4801587301587213E-3</v>
       </c>
       <c r="R104" s="17">
-        <f>Q104/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.4801587301587189E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>1.000512127720067</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0015236725261365</v>
       </c>
       <c r="D105" s="1">
@@ -9422,34 +9422,34 @@
         <v>1.000000000000796</v>
       </c>
       <c r="H105" s="1">
-        <f>B105-G105</f>
+        <f t="shared" si="18"/>
         <v>5.1212771927100498E-4</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.1499999999999915</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.015625</v>
       </c>
       <c r="O105" s="9">
         <v>6.4999999999999902</v>
       </c>
       <c r="P105" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.15384615384615408</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.4038461538461731E-3</v>
       </c>
       <c r="R105" s="17">
-        <f>Q105/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.4038461538461706E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -9470,34 +9470,34 @@
         <v>1.0000000000006171</v>
       </c>
       <c r="H106" s="1">
-        <f>B106-G106</f>
+        <f t="shared" si="18"/>
         <v>5.0538580752590434E-4</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.2599999999999909</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0153846153846153</v>
       </c>
       <c r="O106" s="9">
         <v>6.5999999999999899</v>
       </c>
       <c r="P106" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.15151515151515174</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.3310023310023353E-3</v>
       </c>
       <c r="R106" s="17">
-        <f>Q106/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.3310023310023329E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -9518,34 +9518,34 @@
         <v>1.0000000000004781</v>
       </c>
       <c r="H107" s="1">
-        <f>B107-G107</f>
+        <f t="shared" si="18"/>
         <v>5.0538580766490426E-4</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.3699999999999921</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0151515151515154</v>
       </c>
       <c r="O107" s="9">
         <v>6.6999999999999904</v>
       </c>
       <c r="P107" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14925373134328379</v>
       </c>
       <c r="Q107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.2614201718679505E-3</v>
       </c>
       <c r="R107" s="17">
-        <f>Q107/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.2614201718679481E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F108" s="1">
         <v>1.000145894585988</v>
       </c>
@@ -9553,34 +9553,34 @@
         <v>1.0000000000003699</v>
       </c>
       <c r="H108" s="1">
-        <f>B108-G108</f>
+        <f t="shared" si="18"/>
         <v>-1.0000000000003699</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.4799999999999924</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0149253731343284</v>
       </c>
       <c r="O108" s="9">
         <v>6.7999999999999901</v>
       </c>
       <c r="P108" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14705882352941199</v>
       </c>
       <c r="Q108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.1949078138717992E-3</v>
       </c>
       <c r="R108" s="17">
-        <f>Q108/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.1949078138717971E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F109" s="1">
         <v>1.000143455527448</v>
       </c>
@@ -9588,34 +9588,34 @@
         <v>1.0000000000002871</v>
       </c>
       <c r="H109" s="1">
-        <f>B109-G109</f>
+        <f t="shared" si="18"/>
         <v>-1.0000000000002871</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.5899999999999919</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0147058823529411</v>
       </c>
       <c r="O109" s="9">
         <v>6.8999999999999897</v>
       </c>
       <c r="P109" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14492753623188429</v>
       </c>
       <c r="Q109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.1312872975277064E-3</v>
       </c>
       <c r="R109" s="17">
-        <f>Q109/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.1312872975277043E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F110" s="1">
         <v>1.000141079369095</v>
       </c>
@@ -9623,34 +9623,34 @@
         <v>1.000000000000222</v>
       </c>
       <c r="H110" s="1">
-        <f>B110-G110</f>
+        <f t="shared" si="18"/>
         <v>-1.000000000000222</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.6999999999999922</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0144927536231885</v>
       </c>
       <c r="O110" s="9">
         <v>6.9999999999999902</v>
       </c>
       <c r="P110" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14285714285714304</v>
       </c>
       <c r="Q110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.0703933747412417E-3</v>
       </c>
       <c r="R110" s="17">
-        <f>Q110/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.0703933747412397E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F111" s="1">
         <v>1.000138763928698</v>
       </c>
@@ -9658,34 +9658,34 @@
         <v>1.0000000000001721</v>
       </c>
       <c r="H111" s="1">
-        <f>B111-G111</f>
+        <f t="shared" si="18"/>
         <v>-1.0000000000001721</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.8099999999999916</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0142857142857142</v>
       </c>
       <c r="O111" s="9">
         <v>7.0999999999999899</v>
       </c>
       <c r="P111" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.14084507042253541</v>
       </c>
       <c r="Q111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.0120724346076313E-3</v>
       </c>
       <c r="R111" s="17">
-        <f>Q111/$P$140</f>
+        <f t="shared" si="17"/>
         <v>2.0120724346076292E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F112" s="1">
         <v>1.000136507118816</v>
       </c>
@@ -9693,34 +9693,34 @@
         <v>1.000000000000133</v>
       </c>
       <c r="H112" s="1">
-        <f>B112-G112</f>
+        <f t="shared" si="18"/>
         <v>-1.000000000000133</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.9199999999999928</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0140845070422537</v>
       </c>
       <c r="O112" s="9">
         <v>7.1999999999999904</v>
       </c>
       <c r="P112" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.13888888888888906</v>
       </c>
       <c r="Q112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.9561815336463506E-3</v>
       </c>
       <c r="R112" s="17">
-        <f>Q112/$P$140</f>
+        <f t="shared" si="17"/>
         <v>1.9561815336463485E-2</v>
       </c>
     </row>
-    <row r="113" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F113" s="1">
         <v>1.000134306941866</v>
       </c>
@@ -9728,34 +9728,34 @@
         <v>1.000000000000103</v>
       </c>
       <c r="H113" s="1">
-        <f>B113-G113</f>
+        <f t="shared" si="18"/>
         <v>-1.000000000000103</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.0299999999999923</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0138888888888888</v>
       </c>
       <c r="O113" s="9">
         <v>7.2999999999999901</v>
       </c>
       <c r="P113" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.1369863013698632</v>
       </c>
       <c r="Q113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.9025875190258612E-3</v>
       </c>
       <c r="R113" s="17">
-        <f>Q113/$P$140</f>
+        <f t="shared" si="17"/>
         <v>1.9025875190258591E-2</v>
       </c>
     </row>
-    <row r="114" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F114" s="1">
         <v>1.0001321614854899</v>
       </c>
@@ -9763,30 +9763,30 @@
         <v>1.0000000000000799</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.1399999999999935</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0136986301369864</v>
       </c>
       <c r="O114" s="9">
         <v>7.3999999999999897</v>
       </c>
       <c r="P114" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.13513513513513534</v>
       </c>
       <c r="Q114" s="1">
-        <f t="shared" ref="Q114:Q139" si="9">P113-P114</f>
+        <f t="shared" ref="Q114:Q139" si="19">P113-P114</f>
         <v>1.8511662347278635E-3</v>
       </c>
       <c r="R114" s="17">
-        <f>Q114/$P$140</f>
+        <f t="shared" si="17"/>
         <v>1.8511662347278617E-2</v>
       </c>
     </row>
-    <row r="115" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F115" s="1">
         <v>1.000130068918198</v>
       </c>
@@ -9794,30 +9794,30 @@
         <v>1.000000000000062</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.2499999999999947</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1.0135135135135136</v>
       </c>
       <c r="O115" s="9">
         <v>7.4999999999999902</v>
       </c>
       <c r="P115" s="16">
-        <f t="shared" ref="P115:P140" si="10">1/O115</f>
+        <f t="shared" ref="P115:P140" si="20">1/O115</f>
         <v>0.1333333333333335</v>
       </c>
       <c r="Q115" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.8018018018018389E-3</v>
       </c>
       <c r="R115" s="17">
-        <f>Q115/$P$140</f>
+        <f t="shared" ref="R115:R146" si="21">Q115/$P$140</f>
         <v>1.8018018018018372E-2</v>
       </c>
     </row>
-    <row r="116" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F116" s="1">
         <v>1.000128027485276</v>
       </c>
@@ -9825,30 +9825,30 @@
         <v>1.000000000000048</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.3599999999999941</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" ref="N116:N141" si="11">O116/O115</f>
+        <f t="shared" ref="N116:N141" si="22">O116/O115</f>
         <v>1.0133333333333332</v>
       </c>
       <c r="O116" s="9">
         <v>7.5999999999999899</v>
       </c>
       <c r="P116" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.13157894736842124</v>
       </c>
       <c r="Q116" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.7543859649122584E-3</v>
       </c>
       <c r="R116" s="17">
-        <f t="shared" ref="R116:R140" si="12">Q116/$P$140</f>
+        <f t="shared" ref="R116:R140" si="23">Q116/$P$140</f>
         <v>1.7543859649122567E-2</v>
       </c>
     </row>
-    <row r="117" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F117" s="1">
         <v>1.000126035504924</v>
       </c>
@@ -9856,30 +9856,30 @@
         <v>1.0000000000000371</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" ref="M117:M140" si="13">M116*N117</f>
+        <f t="shared" ref="M117:M140" si="24">M116*N117</f>
         <v>8.4699999999999953</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0131578947368423</v>
       </c>
       <c r="O117" s="9">
         <v>7.6999999999999904</v>
       </c>
       <c r="P117" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12987012987013002</v>
       </c>
       <c r="Q117" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.7088174982912152E-3</v>
       </c>
       <c r="R117" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.7088174982912135E-2</v>
       </c>
     </row>
-    <row r="118" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F118" s="1">
         <v>1.000124091364631</v>
       </c>
@@ -9887,30 +9887,30 @@
         <v>1.0000000000000291</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.5799999999999947</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0129870129870129</v>
       </c>
       <c r="O118" s="9">
         <v>7.7999999999999901</v>
       </c>
       <c r="P118" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12820512820512836</v>
       </c>
       <c r="Q118" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.6650016650016641E-3</v>
       </c>
       <c r="R118" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.6650016650016624E-2</v>
       </c>
     </row>
-    <row r="119" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F119" s="1">
         <v>1.000122193517752</v>
       </c>
@@ -9918,30 +9918,30 @@
         <v>1.000000000000022</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.6899999999999942</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0128205128205128</v>
       </c>
       <c r="O119" s="9">
         <v>7.8999999999999897</v>
       </c>
       <c r="P119" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12658227848101283</v>
       </c>
       <c r="Q119" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.6228497241155271E-3</v>
       </c>
       <c r="R119" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.6228497241155253E-2</v>
       </c>
     </row>
-    <row r="120" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F120" s="1">
         <v>1.000120340480285</v>
       </c>
@@ -9949,30 +9949,30 @@
         <v>1.0000000000000171</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.7999999999999954</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0126582278481013</v>
       </c>
       <c r="O120" s="9">
         <v>7.9999999999999902</v>
       </c>
       <c r="P120" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12500000000000017</v>
       </c>
       <c r="Q120" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.5822784810126667E-3</v>
       </c>
       <c r="R120" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.5822784810126649E-2</v>
       </c>
     </row>
-    <row r="121" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F121" s="1">
         <v>1.000118530827828</v>
       </c>
@@ -9980,30 +9980,30 @@
         <v>1.0000000000000131</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.9099999999999966</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0125000000000002</v>
       </c>
       <c r="O121" s="9">
         <v>8.0999999999999908</v>
       </c>
       <c r="P121" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12345679012345694</v>
       </c>
       <c r="Q121" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.5432098765432306E-3</v>
       </c>
       <c r="R121" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.543209876543229E-2</v>
       </c>
     </row>
-    <row r="122" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F122" s="1">
         <v>1.0001167631927139</v>
       </c>
@@ -10011,30 +10011,30 @@
         <v>1.00000000000001</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.0199999999999978</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0123456790123457</v>
       </c>
       <c r="O122" s="9">
         <v>8.1999999999999904</v>
       </c>
       <c r="P122" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12195121951219526</v>
       </c>
       <c r="Q122" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.5055706112616779E-3</v>
       </c>
       <c r="R122" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.5055706112616763E-2</v>
       </c>
     </row>
-    <row r="123" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F123" s="1">
         <v>1.0001150362613</v>
       </c>
@@ -10042,443 +10042,443 @@
         <v>1.000000000000008</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.1299999999999972</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0121951219512195</v>
       </c>
       <c r="O123" s="9">
         <v>8.2999999999999901</v>
       </c>
       <c r="P123" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12048192771084351</v>
       </c>
       <c r="Q123" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.4692918013517464E-3</v>
       </c>
       <c r="R123" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.4692918013517449E-2</v>
       </c>
     </row>
-    <row r="124" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:18" x14ac:dyDescent="0.3">
       <c r="M124" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.2399999999999967</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0120481927710843</v>
       </c>
       <c r="O124" s="9">
         <v>8.3999999999999897</v>
       </c>
       <c r="P124" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11904761904761919</v>
       </c>
       <c r="Q124" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.4343086632243179E-3</v>
       </c>
       <c r="R124" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.4343086632243165E-2</v>
       </c>
     </row>
-    <row r="125" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:18" x14ac:dyDescent="0.3">
       <c r="M125" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.3499999999999961</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0119047619047619</v>
       </c>
       <c r="O125" s="9">
         <v>8.4999999999999893</v>
       </c>
       <c r="P125" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11764705882352956</v>
       </c>
       <c r="Q125" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.4005602240896309E-3</v>
       </c>
       <c r="R125" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.4005602240896295E-2</v>
       </c>
     </row>
-    <row r="126" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:18" x14ac:dyDescent="0.3">
       <c r="M126" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.4599999999999973</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0117647058823531</v>
       </c>
       <c r="O126" s="9">
         <v>8.5999999999999908</v>
       </c>
       <c r="P126" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11627906976744198</v>
       </c>
       <c r="Q126" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.367989056087579E-3</v>
       </c>
       <c r="R126" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.3679890560875776E-2</v>
       </c>
     </row>
-    <row r="127" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:18" x14ac:dyDescent="0.3">
       <c r="M127" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.5699999999999967</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0116279069767442</v>
       </c>
       <c r="O127" s="9">
         <v>8.6999999999999904</v>
       </c>
       <c r="P127" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11494252873563231</v>
       </c>
       <c r="Q127" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.3365410318096765E-3</v>
       </c>
       <c r="R127" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.3365410318096752E-2</v>
       </c>
     </row>
-    <row r="128" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:18" x14ac:dyDescent="0.3">
       <c r="M128" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.6799999999999962</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0114942528735631</v>
       </c>
       <c r="O128" s="9">
         <v>8.7999999999999901</v>
       </c>
       <c r="P128" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11363636363636377</v>
       </c>
       <c r="Q128" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.3061650992685359E-3</v>
       </c>
       <c r="R128" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.3061650992685345E-2</v>
       </c>
     </row>
-    <row r="129" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M129" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.7899999999999956</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0113636363636362</v>
       </c>
       <c r="O129" s="9">
         <v>8.8999999999999897</v>
       </c>
       <c r="P129" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11235955056179789</v>
       </c>
       <c r="Q129" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2768130745658829E-3</v>
       </c>
       <c r="R129" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.2768130745658815E-2</v>
       </c>
     </row>
-    <row r="130" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M130" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.899999999999995</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0112359550561798</v>
       </c>
       <c r="O130" s="9">
         <v>8.9999999999999893</v>
       </c>
       <c r="P130" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11111111111111124</v>
       </c>
       <c r="Q130" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2484394506866447E-3</v>
       </c>
       <c r="R130" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.2484394506866435E-2</v>
       </c>
     </row>
-    <row r="131" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M131" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.009999999999996</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0111111111111113</v>
       </c>
       <c r="O131" s="9">
         <v>9.0999999999999908</v>
       </c>
       <c r="P131" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10989010989011</v>
       </c>
       <c r="Q131" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2210012210012444E-3</v>
       </c>
       <c r="R131" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.2210012210012432E-2</v>
       </c>
     </row>
-    <row r="132" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M132" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.119999999999996</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0109890109890109</v>
       </c>
       <c r="O132" s="9">
         <v>9.1999999999999904</v>
       </c>
       <c r="P132" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10869565217391315</v>
       </c>
       <c r="Q132" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.1944577161968478E-3</v>
       </c>
       <c r="R132" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.1944577161968466E-2</v>
       </c>
     </row>
-    <row r="133" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M133" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.229999999999997</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0108695652173914</v>
       </c>
       <c r="O133" s="9">
         <v>9.2999999999999901</v>
       </c>
       <c r="P133" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10752688172043022</v>
       </c>
       <c r="Q133" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.1687704534829313E-3</v>
       </c>
       <c r="R133" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.1687704534829301E-2</v>
       </c>
     </row>
-    <row r="134" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M134" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.339999999999996</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.010752688172043</v>
       </c>
       <c r="O134" s="9">
         <v>9.3999999999999897</v>
       </c>
       <c r="P134" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10638297872340437</v>
       </c>
       <c r="Q134" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.143902997025853E-3</v>
       </c>
       <c r="R134" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.1439029970258517E-2</v>
       </c>
     </row>
-    <row r="135" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M135" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.449999999999998</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0106382978723405</v>
       </c>
       <c r="O135" s="9">
         <v>9.4999999999999893</v>
       </c>
       <c r="P135" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10526315789473696</v>
       </c>
       <c r="Q135" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.1198208286674061E-3</v>
       </c>
       <c r="R135" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.1198208286674049E-2</v>
       </c>
     </row>
-    <row r="136" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M136" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.56</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0105263157894739</v>
       </c>
       <c r="O136" s="9">
         <v>9.5999999999999908</v>
       </c>
       <c r="P136" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10416666666666677</v>
       </c>
       <c r="Q136" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.0964912280701927E-3</v>
       </c>
       <c r="R136" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.0964912280701917E-2</v>
       </c>
     </row>
-    <row r="137" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M137" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.670000000000002</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0104166666666667</v>
       </c>
       <c r="O137" s="9">
         <v>9.6999999999999904</v>
       </c>
       <c r="P137" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10309278350515474</v>
       </c>
       <c r="Q137" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.0738831615120237E-3</v>
       </c>
       <c r="R137" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.0738831615120226E-2</v>
       </c>
     </row>
-    <row r="138" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M138" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.780000000000001</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0103092783505154</v>
       </c>
       <c r="O138" s="9">
         <v>9.7999999999999901</v>
       </c>
       <c r="P138" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10204081632653071</v>
       </c>
       <c r="Q138" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.0519671786240331E-3</v>
       </c>
       <c r="R138" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.0519671786240321E-2</v>
       </c>
     </row>
-    <row r="139" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M139" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>10.89</v>
       </c>
       <c r="N139" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.010204081632653</v>
       </c>
       <c r="O139" s="9">
         <v>9.8999999999999897</v>
       </c>
       <c r="P139" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10101010101010112</v>
       </c>
       <c r="Q139" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.0307153164295924E-3</v>
       </c>
       <c r="R139" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.0307153164295913E-2</v>
       </c>
     </row>
-    <row r="140" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M140" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>11.000000000000002</v>
       </c>
       <c r="N140" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.0101010101010102</v>
       </c>
       <c r="O140" s="9">
         <v>9.9999999999999893</v>
       </c>
       <c r="P140" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="Q140" s="1">
@@ -10486,23 +10486,23 @@
         <v>1.0101010101010166E-3</v>
       </c>
       <c r="R140" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1.0101010101010156E-2</v>
       </c>
     </row>
-    <row r="141" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:18" x14ac:dyDescent="0.3">
       <c r="N141" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O141" s="9"/>
       <c r="P141" s="7"/>
     </row>
-    <row r="142" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:18" x14ac:dyDescent="0.3">
       <c r="O142" s="9"/>
       <c r="P142" s="7"/>
     </row>
-    <row r="143" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:18" x14ac:dyDescent="0.3">
       <c r="O143" s="9"/>
       <c r="P143" s="7"/>
     </row>
